--- a/Fileoutput/HybridResults.xlsx
+++ b/Fileoutput/HybridResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saqui\eclipse\eslipse-work space\Hybrid_FrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01002450-E3AD-480F-9F94-18444CE3E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FA29E1-DF1D-4CB2-AE2B-393E5CF8A99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="168">
   <si>
     <t>TCID</t>
   </si>
@@ -531,12 +531,6 @@
   </si>
   <si>
     <t>//input[@placeholder='Customer Name']</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
   <si>
     <t>Pass</t>
@@ -547,7 +541,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="258" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,19 +636,733 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -1444,12 +2152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1593,6 +2300,125 @@
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1876,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,10 +2736,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="s" s="15">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="33">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1924,10 +2750,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s" s="16">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="77">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1938,10 +2764,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="s" s="17">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="135">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1954,8 +2780,8 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="79">
-        <v>169</v>
+      <c r="D5" t="s" s="197">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,8 +2794,8 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="141">
-        <v>169</v>
+      <c r="D6" t="s" s="259">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1980,10 +2806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D95523-9861-4BEC-B077-671207A6FABA}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,7 +2858,9 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" t="s" s="14">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2050,7 +2878,9 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" t="s" s="16">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2068,7 +2898,9 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" t="s" s="18">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -2086,7 +2918,9 @@
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" t="s" s="20">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2104,7 +2938,9 @@
       <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" t="s" s="22">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2122,7 +2958,9 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" t="s" s="24">
+        <v>167</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -2140,7 +2978,9 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" t="s" s="26">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -2155,10 +2995,12 @@
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" t="s" s="28">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -2176,7 +3018,9 @@
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" t="s" s="30">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -2194,28 +3038,9 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="F11" t="s" s="32">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2242,420 +3067,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s" s="34">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="36">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>10</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" t="s" s="38">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" t="s" s="40">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" t="s" s="42">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="44">
+        <v>167</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" t="s" s="46">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" t="s" s="48">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" t="s" s="50">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="52">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" t="s" s="54">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1"/>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s" s="56">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" t="s" s="58">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" t="s" s="60">
+        <v>167</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s" s="62">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" t="s" s="64">
+        <v>167</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s" s="66">
+        <v>167</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" t="s" s="68">
+        <v>167</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s" s="70">
+        <v>167</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" t="s" s="72">
+        <v>167</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s" s="74">
+        <v>167</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s" s="76">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2682,546 +3551,604 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s" s="78">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="80">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>10</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" t="s" s="82">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" t="s" s="84">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" t="s" s="86">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="88">
+        <v>167</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>10</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" t="s" s="90">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" t="s" s="92">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>10</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" t="s" s="94">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="96">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>10</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" t="s" s="98">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s" s="100">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>10</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" t="s" s="102">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" t="s" s="104">
+        <v>167</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" t="s" s="106">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s" s="108">
+        <v>167</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" t="s" s="110">
+        <v>167</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>2</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" t="s" s="112">
+        <v>167</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" t="s" s="114">
+        <v>167</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" t="s" s="116">
+        <v>167</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" t="s" s="118">
+        <v>167</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s" s="120">
+        <v>167</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>10</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" t="s" s="122">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s" s="124">
+        <v>167</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>10</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" t="s" s="126">
+        <v>167</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s" s="128">
+        <v>167</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="C28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s" s="130">
+        <v>167</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="E29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s" s="132">
+        <v>167</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s" s="134">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3268,623 +4195,623 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s" s="18">
-        <v>169</v>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s" s="136">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="20">
-        <v>169</v>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="138">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="22">
-        <v>169</v>
+      <c r="F4" t="s" s="140">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="24">
-        <v>169</v>
+      <c r="F5" t="s" s="142">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s" s="26">
-        <v>169</v>
+      <c r="F6" t="s" s="144">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s" s="28">
-        <v>169</v>
+      <c r="E7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="146">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="30">
-        <v>169</v>
+      <c r="F8" t="s" s="148">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s" s="32">
-        <v>169</v>
+      <c r="F9" t="s" s="150">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="34">
-        <v>169</v>
+      <c r="F10" t="s" s="152">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s" s="36">
-        <v>169</v>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="154">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="38">
-        <v>169</v>
+      <c r="F12" t="s" s="156">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s" s="40">
-        <v>169</v>
+      <c r="E13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s" s="158">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="42">
-        <v>169</v>
+      <c r="F14" t="s" s="160">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s" s="44">
-        <v>169</v>
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s" s="162">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F16" t="s" s="46">
-        <v>169</v>
+      <c r="F16" t="s" s="164">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F17" t="s" s="48">
-        <v>169</v>
+      <c r="F17" t="s" s="166">
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F18" t="s" s="50">
-        <v>169</v>
+      <c r="F18" t="s" s="168">
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F19" t="s" s="52">
-        <v>169</v>
+      <c r="F19" t="s" s="170">
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F20" t="s" s="54">
-        <v>169</v>
+      <c r="F20" t="s" s="172">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>9876543212</v>
       </c>
-      <c r="F21" t="s" s="56">
-        <v>169</v>
+      <c r="F21" t="s" s="174">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F22" t="s" s="58">
-        <v>169</v>
+      <c r="F22" t="s" s="176">
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>9876541232</v>
       </c>
-      <c r="F23" t="s" s="60">
-        <v>169</v>
+      <c r="F23" t="s" s="178">
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F24" t="s" s="62">
-        <v>169</v>
+      <c r="F24" t="s" s="180">
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s" s="64">
-        <v>169</v>
+      <c r="E25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s" s="182">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="66">
-        <v>169</v>
+      <c r="F26" t="s" s="184">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s" s="68">
-        <v>169</v>
+      <c r="E27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s" s="186">
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="70">
-        <v>169</v>
+      <c r="F28" t="s" s="188">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s" s="72">
-        <v>169</v>
+      <c r="E29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s" s="190">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s" s="74">
-        <v>169</v>
+      <c r="C30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s" s="192">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s" s="76">
-        <v>169</v>
+      <c r="E31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s" s="194">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s" s="78">
-        <v>169</v>
+      <c r="C32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s" s="196">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3934,623 +4861,623 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s" s="80">
-        <v>169</v>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s" s="198">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="82">
-        <v>169</v>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="200">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="84">
-        <v>169</v>
+      <c r="F4" t="s" s="202">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="86">
-        <v>169</v>
+      <c r="F5" t="s" s="204">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s" s="88">
-        <v>169</v>
+      <c r="F6" t="s" s="206">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s" s="90">
-        <v>169</v>
+      <c r="E7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="208">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="92">
-        <v>169</v>
+      <c r="F8" t="s" s="210">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s" s="94">
-        <v>169</v>
+      <c r="F9" t="s" s="212">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="96">
-        <v>169</v>
+      <c r="F10" t="s" s="214">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s" s="98">
-        <v>169</v>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="216">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="100">
-        <v>169</v>
+      <c r="F12" t="s" s="218">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s" s="102">
-        <v>169</v>
+      <c r="E13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s" s="220">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="104">
-        <v>169</v>
+      <c r="F14" t="s" s="222">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s" s="106">
-        <v>169</v>
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s" s="224">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F16" t="s" s="108">
-        <v>169</v>
+      <c r="F16" t="s" s="226">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F17" t="s" s="110">
-        <v>169</v>
+      <c r="F17" t="s" s="228">
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F18" t="s" s="112">
-        <v>169</v>
+      <c r="F18" t="s" s="230">
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F19" t="s" s="114">
-        <v>169</v>
+      <c r="F19" t="s" s="232">
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F20" t="s" s="116">
-        <v>169</v>
+      <c r="F20" t="s" s="234">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>1234567898</v>
       </c>
-      <c r="F21" t="s" s="118">
-        <v>169</v>
+      <c r="F21" t="s" s="236">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F22" t="s" s="120">
-        <v>169</v>
+      <c r="F22" t="s" s="238">
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>9876543215</v>
       </c>
-      <c r="F23" t="s" s="122">
-        <v>169</v>
+      <c r="F23" t="s" s="240">
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F24" t="s" s="124">
-        <v>169</v>
+      <c r="F24" t="s" s="242">
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s" s="126">
-        <v>169</v>
+      <c r="E25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s" s="244">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="128">
-        <v>169</v>
+      <c r="F26" t="s" s="246">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s" s="130">
-        <v>169</v>
+      <c r="E27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s" s="248">
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="132">
-        <v>169</v>
+      <c r="F28" t="s" s="250">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s" s="134">
-        <v>169</v>
+      <c r="E29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s" s="252">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s" s="136">
-        <v>169</v>
+      <c r="C30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s" s="254">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s" s="138">
-        <v>169</v>
+      <c r="E31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s" s="256">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s" s="140">
-        <v>169</v>
+      <c r="C32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s" s="258">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
